--- a/MAT2034_MAT2404_GTS_HK1_Python/MAT2404.xlsx
+++ b/MAT2034_MAT2404_GTS_HK1_Python/MAT2404.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Teaching-VNU\MAT2034_MAT2404_GTS_HK1_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1AB7A3-4BE1-4157-AD40-121680AA18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA99EB1-6DCB-4966-8F20-9E51A2F61FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,21 @@
     <sheet name="MAT2404" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="394">
   <si>
     <t>ĐẠI HỌC QUỐC GIA HÀ NỘI</t>
   </si>
@@ -2257,7 +2266,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2283,12 +2292,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2364,6 +2367,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -10323,8 +10334,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10337,7 +10348,7 @@
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="15" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10348,6 +10359,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -10356,6 +10368,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -10364,2431 +10377,2498 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="11" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>19000241</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <f>G11+I11</f>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>19000243</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>1.5</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>27</v>
+      <c r="J12" s="19">
+        <f t="shared" ref="J12:J75" si="0">G12+I12</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>19000244</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="21">
-        <v>5</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>27</v>
+      <c r="I13" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>19000250</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>18001106</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>27</v>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>17001898</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>27</v>
+      <c r="J16" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>17000563</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>27</v>
+      <c r="J17" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>17000252</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>27</v>
+      <c r="J18" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>19000253</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="I19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
+      <c r="J19" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>18001112</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11">
+        <v>4</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>27</v>
+      <c r="J20" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>19000255</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="I21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
+      <c r="J21" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>19000256</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11">
+        <v>4</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>27</v>
+      <c r="J22" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>19000257</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>2</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>27</v>
+      <c r="J23" s="19">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>17000919</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11">
+        <v>9</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>27</v>
+      <c r="J24" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>18001119</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11">
+        <v>6</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>27</v>
+      <c r="J25" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>19000258</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11">
+        <v>8</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>1</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>27</v>
+      <c r="J26" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>18001124</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>27</v>
+      <c r="J27" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>16003499</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="I28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>27</v>
+      <c r="J28" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>17000775</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>27</v>
+      <c r="J29" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>17001053</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>27</v>
+      <c r="J30" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>19001693</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>27</v>
+      <c r="J31" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>17000131</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>27</v>
+      <c r="J32" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>18001137</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11">
+        <v>8</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>27</v>
+      <c r="J33" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>18001143</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>27</v>
+      <c r="J34" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>18001144</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11">
+        <v>5</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>27</v>
+      <c r="J35" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>19000260</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>27</v>
+      <c r="J36" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>17000992</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>27</v>
+      <c r="J37" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>19000263</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11">
+        <v>8</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>2</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>27</v>
+      <c r="J38" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>19000265</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>27</v>
+      <c r="J39" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>17001031</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="11">
+        <v>6</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I40" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>27</v>
+      <c r="J40" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>19000267</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11">
+        <v>7</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="21">
+      <c r="I41" s="19">
         <v>0.5</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>27</v>
+      <c r="J41" s="19">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>17000026</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>27</v>
+      <c r="J42" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>19000269</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11">
+        <v>4</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>27</v>
+      <c r="J43" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>19000270</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="11">
+        <v>4</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>27</v>
+      <c r="J44" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>19000271</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="11">
+        <v>6</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="I45" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>27</v>
+      <c r="J45" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>17001469</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="11">
+        <v>5</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>27</v>
+      <c r="J46" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>19000272</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="I47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>27</v>
+      <c r="J47" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>18000983</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>27</v>
+      <c r="J48" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>16003490</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="11">
+        <v>8</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="I49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>27</v>
+      <c r="J49" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>19000274</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="11">
+        <v>8</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="I50" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>27</v>
+      <c r="J50" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>19000275</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="11">
+        <v>9</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="I51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>27</v>
+      <c r="J51" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>19000276</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="11">
+        <v>4</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="I52" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>27</v>
+      <c r="J52" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>17000431</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="19">
         <v>0.25</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>27</v>
+      <c r="J53" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>19000281</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="11">
+        <v>7</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="I54" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>27</v>
+      <c r="J54" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>17000489</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>27</v>
+      <c r="J55" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>19000283</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="11">
+        <v>4</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="21">
+      <c r="I56" s="19">
         <v>0.5</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>27</v>
+      <c r="J56" s="19">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>17000677</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>27</v>
+      <c r="J57" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>17001471</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>27</v>
+      <c r="J58" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>18000995</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="11">
+        <v>8</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>27</v>
+      <c r="I59" s="19">
+        <v>3</v>
+      </c>
+      <c r="J59" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>19000286</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="11">
+        <v>3</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="I60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I60" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>27</v>
+      <c r="J60" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>19000287</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="11">
+        <v>8</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="I61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>27</v>
+      <c r="J61" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>19000288</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="11">
+        <v>5</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="I62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>27</v>
+      <c r="J62" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>19000289</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="11">
+        <v>10</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>27</v>
+      <c r="I63" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="J63" s="19">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>17001708</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>27</v>
+      <c r="J64" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>19000148</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="21">
+      <c r="G65" s="11">
+        <v>8</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="19">
         <v>0.75</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>27</v>
+      <c r="J65" s="19">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>19000306</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="11">
+        <v>8</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="I66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>27</v>
+      <c r="J66" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>19000307</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="11">
+        <v>9</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="I67" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I67" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>27</v>
+      <c r="J67" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>19000310</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>27</v>
+      <c r="J68" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>18001203</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="11">
+        <v>5</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="I69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>27</v>
+      <c r="J69" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>19000311</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="11">
+        <v>6</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="13" t="s">
-        <v>27</v>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>18001209</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="11">
+        <v>5</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="I71" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>27</v>
+      <c r="J71" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>18001213</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="I72" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I72" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>27</v>
+      <c r="J72" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>19000297</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>27</v>
+      <c r="I73" s="19">
+        <v>1</v>
+      </c>
+      <c r="J73" s="19">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>19000298</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="11">
+        <v>2</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="I74" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I74" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>27</v>
+      <c r="J74" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>19001694</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="11">
+        <v>8</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>27</v>
+      <c r="I75" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="19">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>18001192</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I76" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="13" t="s">
-        <v>27</v>
+      <c r="J76" s="19" t="e">
+        <f t="shared" ref="J76:J80" si="1">G76+I76</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>17001741</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="11">
+        <v>6</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="I77" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I77" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>27</v>
+      <c r="J77" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>19000304</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="11">
+        <v>10</v>
+      </c>
+      <c r="H78" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="21">
+      <c r="I78" s="19">
         <v>1.25</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>27</v>
+      <c r="J78" s="19">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>18001013</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I79" s="21" t="s">
+      <c r="I79" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="13" t="s">
-        <v>27</v>
+      <c r="J79" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>18001219</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="11">
+        <v>6</v>
+      </c>
+      <c r="H80" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="I80" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I80" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>27</v>
+      <c r="J80" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="14" t="s">
+      <c r="A81" s="44"/>
+      <c r="B81" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="43" t="s">
+      <c r="C81" s="44"/>
+      <c r="D81" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="16"/>
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="39"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="16"/>
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="41"/>
+      <c r="B83" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="39"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="18"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="14" t="s">
+      <c r="A84" s="41"/>
+      <c r="B84" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="45" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="39"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="18"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" ht="78" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="14" t="s">
+      <c r="A85" s="41"/>
+      <c r="B85" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="39"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="18"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="18"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="8"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -16358,7 +16438,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16370,1647 +16450,1649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>19000241</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>19000243</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>19000244</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>19000250</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>18001106</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>17001898</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>17000563</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>17000252</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
+      <c r="F9" s="49"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
         <v>-2</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>19000253</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>18001112</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>19000255</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>19000256</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="F13" s="49"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28">
         <v>-2</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>19000257</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>17000919</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>18001119</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30">
+      <c r="F16" s="49"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28">
         <v>-2</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>19000258</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>18001124</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30">
+      <c r="F18" s="49"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28">
         <v>-2</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>16003499</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30">
+      <c r="F19" s="49"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28">
         <v>-2</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>17001053</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>19001693</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="26">
         <v>17000131</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30">
+      <c r="F22" s="49"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28">
         <v>-2</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>18001137</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="26">
         <v>18001143</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30">
+      <c r="F24" s="49"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28">
         <v>-2</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="26">
         <v>18001144</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <v>19000260</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30">
+      <c r="F26" s="49"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28">
         <v>-2</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>19000263</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <v>19000265</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30">
+      <c r="F28" s="49"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28">
         <v>-2</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="26">
         <v>17001031</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>29</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="26">
         <v>19000267</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>30</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="26">
         <v>17000026</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30">
+      <c r="F31" s="49"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28">
         <v>-2</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="26">
         <v>19000269</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30">
+      <c r="F32" s="49"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28">
         <v>-2</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>32</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="26">
         <v>19000270</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <v>19000271</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="26">
         <v>17001469</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30">
+      <c r="F35" s="49"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28">
         <v>-2</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="32">
         <v>19000272</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36">
+      <c r="F36" s="48"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34">
         <v>-2</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="48">
+      <c r="A37" s="50">
         <v>2</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
     </row>
     <row r="38" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="24" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="24" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <v>36</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="26">
         <v>18000983</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30">
+      <c r="F39" s="49"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28">
         <v>-2</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <v>37</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="26">
         <v>16003490</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30">
+      <c r="F40" s="49"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28">
         <v>-2</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <v>38</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="26">
         <v>19000274</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>39</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="26">
         <v>19000275</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>40</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="26">
         <v>19000276</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>41</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="26">
         <v>17000431</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30">
+      <c r="F44" s="49"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28">
         <v>-2</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="32">
+      <c r="A45" s="30">
         <v>42</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="26">
         <v>19000281</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <v>43</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="26">
         <v>17000489</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30">
+      <c r="F46" s="49"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28">
         <v>-2</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <v>44</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="26">
         <v>19000283</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="31"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>45</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="26">
         <v>17001471</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>46</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="26">
         <v>18000995</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>47</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="26">
         <v>19000286</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>48</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="26">
         <v>19000287</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30">
+      <c r="F51" s="49"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28">
         <v>-2</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>49</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="26">
         <v>19000288</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>50</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="26">
         <v>19000289</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="31"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>51</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="26">
         <v>17001708</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E54" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>52</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="26">
         <v>19000148</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="31"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>53</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="26">
         <v>17000301</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30">
+      <c r="F56" s="49"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28">
         <v>-2</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="31"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="32">
+      <c r="A57" s="30">
         <v>54</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="26">
         <v>17000114</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30">
+      <c r="F57" s="49"/>
+      <c r="G57" s="28">
+        <v>5</v>
+      </c>
+      <c r="H57" s="28">
         <v>-2</v>
       </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
+      <c r="A58" s="30">
         <v>55</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="26">
         <v>19000306</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="32">
+      <c r="A59" s="30">
         <v>56</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="26">
         <v>19000307</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="32">
+      <c r="A60" s="30">
         <v>57</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="26">
         <v>19000310</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30">
+      <c r="F60" s="49"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28">
         <v>-2</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="31"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="32">
+      <c r="A61" s="30">
         <v>58</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="26">
         <v>18001203</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30">
+      <c r="F61" s="49"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28">
         <v>-2</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="32">
+      <c r="A62" s="30">
         <v>59</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B62" s="26">
         <v>19000311</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30">
+      <c r="F62" s="49"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28">
         <v>-2</v>
       </c>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="32">
+      <c r="A63" s="30">
         <v>60</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="26">
         <v>18001209</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F63" s="47"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="32">
+      <c r="A64" s="30">
         <v>61</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="26">
         <v>18001213</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F64" s="47"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="31"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="32">
+      <c r="A65" s="30">
         <v>62</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="26">
         <v>19000297</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="32">
+      <c r="A66" s="30">
         <v>63</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="26">
         <v>19000298</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30">
+      <c r="F66" s="49"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28">
         <v>-2</v>
       </c>
-      <c r="I66" s="30"/>
-      <c r="J66" s="31"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="32">
+      <c r="A67" s="30">
         <v>64</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="26">
         <v>19001694</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="31"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="32">
+      <c r="A68" s="30">
         <v>65</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="26">
         <v>18001192</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="32">
+      <c r="A69" s="30">
         <v>66</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="26">
         <v>17001741</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="32">
+      <c r="A70" s="30">
         <v>67</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="26">
         <v>19000304</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F70" s="47"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="32">
+      <c r="A71" s="30">
         <v>68</v>
       </c>
-      <c r="B71" s="28">
+      <c r="B71" s="26">
         <v>18001013</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E71" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30">
+      <c r="F71" s="49"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28">
         <v>-2</v>
       </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="31"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="33">
+      <c r="A72" s="31">
         <v>69</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="32">
         <v>18001219</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
